--- a/xlsx/莫三比克_intext.xlsx
+++ b/xlsx/莫三比克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="921">
   <si>
     <t>莫三比克</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>莫桑比克國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_莫三比克</t>
+    <t>莫桑比克国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_莫三比克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>莫桑比克國徽</t>
+    <t>莫桑比克国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%B2%E7%88%B1%E7%9A%84%E7%A5%96%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%8A%A0%E5%B1%B1</t>
   </si>
   <si>
-    <t>賓加山</t>
+    <t>宾加山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>莫桑比克總統</t>
+    <t>莫桑比克总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E4%BD%A9%C2%B7%E7%B4%90%E8%A5%BF</t>
   </si>
   <si>
-    <t>菲利佩·紐西</t>
+    <t>菲利佩·纽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E6%80%BB%E7%90%86</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E5%A4%9A%E7%BE%85%E8%96%A9%E9%87%8C%E5%A5%A7</t>
   </si>
   <si>
-    <t>卡洛斯·多羅薩里奧</t>
+    <t>卡洛斯·多罗萨里奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E6%A2%85%E8%92%82%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>莫三比克梅蒂卡爾</t>
+    <t>莫三比克梅蒂卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>莫桑比克人民共和國</t>
+    <t>莫桑比克人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AK-47%E7%AA%81%E5%87%BB%E6%AD%A5%E6%9E%AA</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.mz</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%96%87</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>葡屬東非</t>
+    <t>葡属东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E4%BC%BD%E9%A6%AC</t>
   </si>
   <si>
-    <t>達伽馬</t>
+    <t>达伽马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫桑比克解放陣線</t>
+    <t>莫桑比克解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E8%90%A8%E5%8D%A1</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E6%B0%91%E6%97%8F%E6%8A%B5%E6%8A%97%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>莫三比克民族抵抗運動</t>
+    <t>莫三比克民族抵抗运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97</t>
   </si>
   <si>
-    <t>東南</t>
+    <t>东南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E8%A5%BF%E6%B2%B3</t>
@@ -467,19 +467,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>南非共和國</t>
+    <t>南非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD</t>
   </si>
   <si>
-    <t>史瓦濟蘭</t>
+    <t>史瓦济兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AF%94%E8%A5%BF%E6%B2%B3</t>
@@ -515,25 +512,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E4%BC%8F%E9%A6%AC%E6%B2%B3</t>
   </si>
   <si>
-    <t>魯伏馬河</t>
+    <t>鲁伏马河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%9B%9E%E6%AD%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>南回歸線</t>
+    <t>南回归线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>副熱帶</t>
+    <t>副热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E8%80%95</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%80%AB%E7%B4%A2%E9%A6%AC%E5%A5%8E%E6%B8%AF</t>
   </si>
   <si>
-    <t>盧倫索馬奎港</t>
+    <t>卢伦索马奎港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%8F%AF%E9%BA%A5%E6%8F%90%E6%B2%B3</t>
   </si>
   <si>
-    <t>英可麥提河</t>
+    <t>英可麦提河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF%E5%85%9A</t>
@@ -575,31 +572,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E5%85%A8%E5%9C%8B%E6%8A%B5%E6%8A%97%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>莫桑比克全國抵抗運動</t>
+    <t>莫桑比克全国抵抗运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>民主聯盟</t>
+    <t>民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>工黨</t>
+    <t>工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%AD%AF%E5%9F%83</t>
   </si>
   <si>
-    <t>古魯埃</t>
+    <t>古鲁埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E6%B5%B7%E6%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>近海漁業</t>
+    <t>近海渔业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%94%97</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%94%9F</t>
@@ -653,13 +650,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>豆類</t>
+    <t>豆类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%A6%E7%B2%9F</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B2%B9</t>
   </si>
   <si>
-    <t>棕櫚油</t>
+    <t>棕榈油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E8%91%89</t>
   </si>
   <si>
-    <t>菸葉</t>
+    <t>菸叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
@@ -737,37 +734,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC</t>
   </si>
   <si>
-    <t>馬</t>
+    <t>马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A8%BE</t>
   </si>
   <si>
-    <t>騾</t>
+    <t>骡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%A2</t>
   </si>
   <si>
-    <t>驢</t>
+    <t>驴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC</t>
   </si>
   <si>
-    <t>豬</t>
+    <t>猪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E</t>
   </si>
   <si>
-    <t>雞</t>
+    <t>鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B4%A8</t>
   </si>
   <si>
-    <t>鴨</t>
+    <t>鸭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5</t>
   </si>
   <si>
-    <t>鐵</t>
+    <t>铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%A3%89</t>
@@ -815,31 +812,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%AF</t>
   </si>
   <si>
-    <t>鋯</t>
+    <t>锆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B7</t>
   </si>
   <si>
-    <t>鈷</t>
+    <t>钴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85</t>
   </si>
   <si>
-    <t>銅</t>
+    <t>铜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B</t>
   </si>
   <si>
-    <t>鉛</t>
+    <t>铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%AD</t>
   </si>
   <si>
-    <t>鉭</t>
+    <t>钽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9E</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%8D</t>
   </si>
   <si>
-    <t>鉍</t>
+    <t>铋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E8%8B%B1</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>莫桑比克行政區劃</t>
+    <t>莫桑比克行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%99%AE%E6%89%98%E5%B8%82</t>
@@ -893,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BC%E5%8D%A1%E7%9C%81</t>
   </si>
   <si>
-    <t>馬尼卡省</t>
+    <t>马尼卡省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%99%AE%E6%89%98%E7%9C%81</t>
   </si>
   <si>
-    <t>馬普托省</t>
+    <t>马普托省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%A0%E6%99%AE%E6%8B%89%E7%9C%81</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8A%E6%AF%94%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>贊比西亞省</t>
+    <t>赞比西亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%B7%B4</t>
@@ -953,19 +950,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%88%88%E8%AC%9D</t>
   </si>
   <si>
-    <t>安戈謝</t>
+    <t>安戈谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E9%A6%AC%E5%85%A7</t>
   </si>
   <si>
-    <t>克利馬內</t>
+    <t>克利马内</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B4%8D%E9%8E%AE</t>
   </si>
   <si>
-    <t>塞納鎮</t>
+    <t>塞纳镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%89%B9</t>
@@ -989,31 +986,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%B0%BC%E6%8F%9A%E5%B7%B4%E5%85%A7</t>
   </si>
   <si>
-    <t>伊尼揚巴內</t>
+    <t>伊尼扬巴内</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%B3%BD</t>
   </si>
   <si>
-    <t>賽賽</t>
+    <t>赛赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B8%83%E5%A4%9A</t>
   </si>
   <si>
-    <t>馬布多</t>
+    <t>马布多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%8B%89</t>
   </si>
   <si>
-    <t>貝拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -1025,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>莫桑比克獨立戰爭</t>
+    <t>莫桑比克独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1127,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1379,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1409,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1433,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1499,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1583,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -1637,9 +1631,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -1757,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1805,19 +1796,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -1859,9 +1850,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
-    <t>英联邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -1901,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
@@ -1955,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1985,19 +1973,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
@@ -2015,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -2045,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -2063,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -2105,9 +2093,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2153,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2171,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B3%B6%E8%88%87%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南喬治亞島與南桑威奇群島</t>
+    <t>南乔治亚岛与南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2189,9 +2174,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
   </si>
   <si>
@@ -2207,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -2327,15 +2309,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
@@ -2345,7 +2321,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -2363,7 +2339,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -2399,7 +2375,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2435,9 +2411,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
   </si>
   <si>
@@ -2447,13 +2420,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>葡語系奧林匹克委員會總會</t>
+    <t>葡语系奥林匹克委员会总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>葡語系運動會</t>
+    <t>葡语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
@@ -2465,7 +2438,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -2501,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -2519,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -2531,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -2549,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2585,7 +2558,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2633,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2651,13 +2624,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
@@ -2693,7 +2666,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -2711,49 +2684,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2771,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2783,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2795,13 +2762,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -5414,7 +5381,7 @@
         <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5440,10 +5407,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5469,10 +5436,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -5498,10 +5465,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -5527,10 +5494,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5556,10 +5523,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5585,10 +5552,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -5614,10 +5581,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -5643,10 +5610,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5672,10 +5639,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5701,10 +5668,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5730,10 +5697,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5759,10 +5726,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5788,10 +5755,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5817,10 +5784,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -5846,10 +5813,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5875,10 +5842,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5904,10 +5871,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5933,10 +5900,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5962,10 +5929,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5991,10 +5958,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6020,10 +5987,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6049,10 +6016,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6078,10 +6045,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -6107,10 +6074,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -6136,10 +6103,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6165,10 +6132,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6194,10 +6161,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6223,10 +6190,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6252,10 +6219,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6281,10 +6248,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6310,10 +6277,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6339,10 +6306,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6368,10 +6335,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6397,10 +6364,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6426,10 +6393,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6455,10 +6422,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6484,10 +6451,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6513,10 +6480,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6542,10 +6509,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6571,10 +6538,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6600,10 +6567,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -6629,10 +6596,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6658,10 +6625,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6687,10 +6654,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6716,10 +6683,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>27</v>
@@ -6745,10 +6712,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6774,10 +6741,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6803,10 +6770,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6832,10 +6799,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6861,10 +6828,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6890,10 +6857,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>7</v>
@@ -6919,10 +6886,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6948,10 +6915,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6977,10 +6944,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7006,10 +6973,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -7035,10 +7002,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7064,10 +7031,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7093,10 +7060,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7122,10 +7089,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7151,10 +7118,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7180,10 +7147,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7209,10 +7176,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7238,10 +7205,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7267,10 +7234,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7296,10 +7263,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7325,10 +7292,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7354,10 +7321,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7383,10 +7350,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7412,10 +7379,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7441,10 +7408,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7470,10 +7437,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7499,10 +7466,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7528,10 +7495,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7557,10 +7524,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7615,10 +7582,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7644,10 +7611,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7673,10 +7640,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7702,10 +7669,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7731,10 +7698,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7760,10 +7727,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7789,10 +7756,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7818,10 +7785,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7847,10 +7814,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7876,10 +7843,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7905,10 +7872,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7934,10 +7901,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7963,10 +7930,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" t="s">
         <v>323</v>
-      </c>
-      <c r="F166" t="s">
-        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7992,10 +7959,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8021,10 +7988,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8050,10 +8017,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8079,10 +8046,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8108,10 +8075,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>8</v>
@@ -8137,10 +8104,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8166,10 +8133,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8195,10 +8162,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8224,10 +8191,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8253,10 +8220,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8282,10 +8249,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8311,10 +8278,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>10</v>
@@ -8340,10 +8307,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>15</v>
@@ -8369,10 +8336,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8398,10 +8365,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8427,10 +8394,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -8456,10 +8423,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -8485,10 +8452,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>5</v>
@@ -8514,10 +8481,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8543,10 +8510,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -8572,10 +8539,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8601,10 +8568,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>4</v>
@@ -8630,10 +8597,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8659,10 +8626,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -8688,10 +8655,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -8717,10 +8684,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -8746,10 +8713,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -8775,10 +8742,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -8804,10 +8771,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8833,10 +8800,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8862,10 +8829,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -8891,10 +8858,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8920,10 +8887,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -8949,10 +8916,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -8978,10 +8945,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>6</v>
@@ -9007,10 +8974,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -9036,10 +9003,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -9065,10 +9032,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -9094,10 +9061,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9123,10 +9090,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>5</v>
@@ -9152,10 +9119,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -9181,10 +9148,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -9210,10 +9177,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -9239,10 +9206,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9268,10 +9235,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9297,10 +9264,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -9355,10 +9322,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -9384,10 +9351,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9413,10 +9380,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9442,10 +9409,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9471,10 +9438,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -9500,10 +9467,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -9529,10 +9496,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9558,10 +9525,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9587,10 +9554,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9616,10 +9583,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9645,10 +9612,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9674,10 +9641,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -9703,10 +9670,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9732,10 +9699,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9761,10 +9728,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9790,10 +9757,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -9819,10 +9786,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -9848,10 +9815,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>4</v>
@@ -9877,10 +9844,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9906,10 +9873,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>5</v>
@@ -9935,10 +9902,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -9964,10 +9931,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>5</v>
@@ -9993,10 +9960,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10022,10 +9989,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10051,10 +10018,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10080,10 +10047,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10109,10 +10076,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10138,10 +10105,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10167,10 +10134,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10196,10 +10163,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10225,10 +10192,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10254,10 +10221,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10283,10 +10250,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10312,10 +10279,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10341,10 +10308,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10370,10 +10337,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10399,10 +10366,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10428,10 +10395,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10457,10 +10424,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10486,10 +10453,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10515,10 +10482,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10544,10 +10511,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10573,10 +10540,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10602,10 +10569,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10631,10 +10598,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10660,10 +10627,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10689,10 +10656,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10718,10 +10685,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>14</v>
@@ -10747,10 +10714,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F262" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10776,10 +10743,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10805,10 +10772,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -10834,10 +10801,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10863,10 +10830,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -10892,10 +10859,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10921,10 +10888,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10950,10 +10917,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>4</v>
@@ -10979,10 +10946,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -11008,10 +10975,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G271" t="n">
         <v>4</v>
@@ -11037,10 +11004,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -11066,10 +11033,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11095,10 +11062,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -11124,10 +11091,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11153,10 +11120,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>96</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11211,10 +11178,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11240,10 +11207,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11269,10 +11236,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11298,10 +11265,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11327,10 +11294,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11356,10 +11323,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11385,10 +11352,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F284" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G284" t="n">
         <v>12</v>
@@ -11414,10 +11381,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
@@ -11443,10 +11410,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -11472,10 +11439,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11501,10 +11468,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11530,10 +11497,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11559,10 +11526,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11588,10 +11555,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11617,10 +11584,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11646,10 +11613,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11675,10 +11642,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11704,10 +11671,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11733,10 +11700,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -11762,10 +11729,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11791,10 +11758,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11820,10 +11787,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11849,10 +11816,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11878,10 +11845,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11907,10 +11874,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11936,10 +11903,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11965,10 +11932,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11994,10 +11961,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F305" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12023,10 +11990,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12052,10 +12019,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12081,10 +12048,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12110,10 +12077,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12139,10 +12106,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12168,10 +12135,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12197,10 +12164,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -12226,10 +12193,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12255,10 +12222,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12284,10 +12251,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12313,10 +12280,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>98</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -12342,10 +12309,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12371,10 +12338,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12400,10 +12367,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12429,10 +12396,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12458,10 +12425,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12487,10 +12454,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F322" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12516,10 +12483,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12545,10 +12512,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12574,10 +12541,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -12603,10 +12570,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12632,10 +12599,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12661,10 +12628,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12690,10 +12657,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12719,10 +12686,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12748,10 +12715,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12777,10 +12744,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12806,10 +12773,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12835,10 +12802,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12864,10 +12831,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12893,10 +12860,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12922,10 +12889,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12951,10 +12918,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12980,10 +12947,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13009,10 +12976,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13038,10 +13005,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G341" t="n">
         <v>3</v>
@@ -13067,13 +13034,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13096,10 +13063,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13125,10 +13092,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13154,10 +13121,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13183,10 +13150,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13212,10 +13179,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13241,10 +13208,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13270,10 +13237,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13299,10 +13266,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13328,10 +13295,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13357,10 +13324,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13386,10 +13353,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13415,10 +13382,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13444,10 +13411,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13473,10 +13440,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13502,10 +13469,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13531,10 +13498,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>462</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13560,10 +13527,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13589,10 +13556,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13618,10 +13585,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13647,10 +13614,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13676,10 +13643,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13705,10 +13672,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13734,10 +13701,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13763,10 +13730,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13792,10 +13759,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13821,10 +13788,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13850,10 +13817,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13879,10 +13846,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13908,10 +13875,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13937,10 +13904,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>620</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13966,10 +13933,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13995,10 +13962,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14024,10 +13991,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14053,10 +14020,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14082,10 +14049,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14111,10 +14078,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14140,10 +14107,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14169,10 +14136,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14198,10 +14165,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F381" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14227,10 +14194,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F382" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14256,10 +14223,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F383" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G383" t="n">
         <v>5</v>
@@ -14285,10 +14252,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14314,10 +14281,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14343,10 +14310,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14372,10 +14339,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14401,10 +14368,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14430,10 +14397,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -14459,10 +14426,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14488,10 +14455,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14517,10 +14484,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14546,10 +14513,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14575,10 +14542,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14604,10 +14571,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F395" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14633,10 +14600,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14662,10 +14629,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14691,10 +14658,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>595</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14720,10 +14687,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F399" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14749,10 +14716,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>520</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14778,10 +14745,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F401" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14807,10 +14774,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F402" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -14836,10 +14803,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F403" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14865,10 +14832,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14894,10 +14861,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -14923,10 +14890,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -14952,10 +14919,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14981,10 +14948,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -15010,10 +14977,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G409" t="n">
         <v>3</v>
@@ -15039,10 +15006,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15068,10 +15035,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15097,10 +15064,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G412" t="n">
         <v>3</v>
@@ -15126,10 +15093,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15155,10 +15122,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15184,10 +15151,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F415" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15213,10 +15180,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15242,10 +15209,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F417" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15271,10 +15238,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F418" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15300,10 +15267,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F419" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15329,10 +15296,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F420" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15358,10 +15325,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F421" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15387,10 +15354,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F422" t="s">
-        <v>806</v>
+        <v>414</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15416,10 +15383,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F423" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15445,10 +15412,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F424" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15474,10 +15441,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F425" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15503,10 +15470,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F426" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15532,10 +15499,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F427" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G427" t="n">
         <v>3</v>
@@ -15561,10 +15528,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F428" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15590,10 +15557,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F429" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -15619,10 +15586,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F430" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15648,10 +15615,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F431" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15677,10 +15644,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F432" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15706,10 +15673,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F433" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15735,10 +15702,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F434" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15764,10 +15731,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F435" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15793,10 +15760,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F436" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15822,10 +15789,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F437" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -15851,10 +15818,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F438" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15880,10 +15847,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F439" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15909,10 +15876,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F440" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15938,10 +15905,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F441" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G441" t="n">
         <v>3</v>
@@ -15967,10 +15934,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F442" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15996,10 +15963,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F443" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16025,10 +15992,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F444" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16054,10 +16021,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F445" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16083,10 +16050,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F446" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16112,10 +16079,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F447" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16141,10 +16108,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F448" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16170,10 +16137,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F449" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16199,10 +16166,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F450" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16228,10 +16195,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F451" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16257,10 +16224,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F452" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16286,10 +16253,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F453" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16315,10 +16282,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F454" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16344,10 +16311,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F455" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16373,10 +16340,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F456" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16402,10 +16369,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F457" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16431,10 +16398,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F458" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16460,10 +16427,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F459" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16489,10 +16456,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F460" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -16518,10 +16485,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="F461" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16547,10 +16514,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F462" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16576,10 +16543,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="F463" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16605,10 +16572,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="F464" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16634,10 +16601,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="F465" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16663,10 +16630,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F466" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16692,10 +16659,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F467" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16721,10 +16688,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F468" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -16750,10 +16717,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="F469" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16779,10 +16746,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F470" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16808,10 +16775,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="F471" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16837,10 +16804,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F472" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16866,10 +16833,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F473" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16895,10 +16862,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F474" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16924,10 +16891,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="F475" t="s">
-        <v>898</v>
+        <v>722</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16953,10 +16920,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F476" t="s">
-        <v>900</v>
+        <v>794</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16982,10 +16949,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F477" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17011,10 +16978,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F478" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G478" t="n">
         <v>5</v>
@@ -17040,10 +17007,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F479" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17069,10 +17036,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F480" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17098,10 +17065,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F481" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17127,10 +17094,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F482" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G482" t="n">
         <v>3</v>
@@ -17156,10 +17123,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F483" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17185,10 +17152,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F484" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17214,10 +17181,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F485" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17243,10 +17210,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F486" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17272,10 +17239,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F487" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17301,10 +17268,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F488" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17330,10 +17297,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F489" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17359,10 +17326,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F490" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17388,10 +17355,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F491" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G491" t="n">
         <v>9</v>
@@ -17417,10 +17384,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F492" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>

--- a/xlsx/莫三比克_intext.xlsx
+++ b/xlsx/莫三比克_intext.xlsx
@@ -29,7 +29,7 @@
     <t>莫桑比克國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_莫三比克</t>
+    <t>体育运动_体育运动_南非_莫三比克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E5%9C%8B%E5%BE%BD</t>
